--- a/HarlanCoben.xlsx
+++ b/HarlanCoben.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Books\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5FEF79-9381-4FB1-88E6-15F6DE29DB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A662E2-B604-420F-950F-82CE9635E219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -817,7 +817,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
